--- a/excel/finished/烧结/6#脱硝运行记录表月报.xlsx
+++ b/excel/finished/烧结/6#脱硝运行记录表月报.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="689"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="月报" sheetId="4" r:id="rId1"/>
     <sheet name="_6tuoxiaogaoliu_month_day" sheetId="6" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="5" r:id="rId3"/>
+    <sheet name="_6tuoxiaogaoliu1_month_day" sheetId="7" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -369,10 +370,10 @@
     </r>
   </si>
   <si>
-    <t>ST6_L1R_DeSN_OutsideWaterFlow_1min_avg</t>
+    <t>ST6_L1R_DeSN_OutsideWaterFlow_1m_avg</t>
   </si>
   <si>
-    <t>ST6_L1R_DeSN_LyeTankLevel_1min_avg</t>
+    <t>ST6_L1R_DeSN_LyeTankLevel_1m_avg</t>
   </si>
   <si>
     <t>ST6_L1R_SIN_DelAmtUse_8h_avg</t>
@@ -401,12 +402,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -421,9 +422,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,14 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,78 +525,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,24 +546,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -624,7 +625,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,13 +667,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,19 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,91 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,43 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,16 +927,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -945,18 +946,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,6 +971,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,225 +1001,212 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1236,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,13 +1294,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1676,11 +1677,11 @@
   <dimension ref="A1:R366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D349" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:A360"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1996,7 +1997,7 @@
         <v/>
       </c>
       <c r="J7" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G3="","",_6tuoxiaogaoliu_month_day!G3)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A2="","",_6tuoxiaogaoliu1_month_day!A2)</f>
         <v/>
       </c>
       <c r="K7" s="18" t="str">
@@ -2110,7 +2111,7 @@
         <v/>
       </c>
       <c r="J9" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G5="","",_6tuoxiaogaoliu_month_day!G5)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A4="","",_6tuoxiaogaoliu1_month_day!A4)</f>
         <v/>
       </c>
       <c r="K9" s="18" t="str">
@@ -2218,7 +2219,7 @@
         <v/>
       </c>
       <c r="J11" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G7="","",_6tuoxiaogaoliu_month_day!G7)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A6="","",_6tuoxiaogaoliu1_month_day!A6)</f>
         <v/>
       </c>
       <c r="K11" s="18" t="str">
@@ -2329,7 +2330,7 @@
         <v/>
       </c>
       <c r="J13" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G9="","",_6tuoxiaogaoliu_month_day!G9)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A8="","",_6tuoxiaogaoliu1_month_day!A8)</f>
         <v/>
       </c>
       <c r="K13" s="18" t="str">
@@ -2443,7 +2444,7 @@
         <v/>
       </c>
       <c r="J15" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G11="","",_6tuoxiaogaoliu_month_day!G11)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A10="","",_6tuoxiaogaoliu1_month_day!A10)</f>
         <v/>
       </c>
       <c r="K15" s="18" t="str">
@@ -2551,7 +2552,7 @@
         <v/>
       </c>
       <c r="J17" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G13="","",_6tuoxiaogaoliu_month_day!G13)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A12="","",_6tuoxiaogaoliu1_month_day!A12)</f>
         <v/>
       </c>
       <c r="K17" s="18" t="str">
@@ -2662,7 +2663,7 @@
         <v/>
       </c>
       <c r="J19" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G15="","",_6tuoxiaogaoliu_month_day!G15)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A14="","",_6tuoxiaogaoliu1_month_day!A14)</f>
         <v/>
       </c>
       <c r="K19" s="18" t="str">
@@ -2776,7 +2777,7 @@
         <v/>
       </c>
       <c r="J21" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G17="","",_6tuoxiaogaoliu_month_day!G17)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A16="","",_6tuoxiaogaoliu1_month_day!A16)</f>
         <v/>
       </c>
       <c r="K21" s="18" t="str">
@@ -2884,7 +2885,7 @@
         <v/>
       </c>
       <c r="J23" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G19="","",_6tuoxiaogaoliu_month_day!G19)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A18="","",_6tuoxiaogaoliu1_month_day!A18)</f>
         <v/>
       </c>
       <c r="K23" s="18" t="str">
@@ -2995,7 +2996,7 @@
         <v/>
       </c>
       <c r="J25" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G21="","",_6tuoxiaogaoliu_month_day!G21)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A20="","",_6tuoxiaogaoliu1_month_day!A20)</f>
         <v/>
       </c>
       <c r="K25" s="18" t="str">
@@ -3109,7 +3110,7 @@
         <v/>
       </c>
       <c r="J27" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G23="","",_6tuoxiaogaoliu_month_day!G23)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A22="","",_6tuoxiaogaoliu1_month_day!A22)</f>
         <v/>
       </c>
       <c r="K27" s="18" t="str">
@@ -3217,7 +3218,7 @@
         <v/>
       </c>
       <c r="J29" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G25="","",_6tuoxiaogaoliu_month_day!G25)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A24="","",_6tuoxiaogaoliu1_month_day!A24)</f>
         <v/>
       </c>
       <c r="K29" s="18" t="str">
@@ -3328,7 +3329,7 @@
         <v/>
       </c>
       <c r="J31" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G27="","",_6tuoxiaogaoliu_month_day!G27)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A26="","",_6tuoxiaogaoliu1_month_day!A26)</f>
         <v/>
       </c>
       <c r="K31" s="18" t="str">
@@ -3442,7 +3443,7 @@
         <v/>
       </c>
       <c r="J33" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G29="","",_6tuoxiaogaoliu_month_day!G29)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A28="","",_6tuoxiaogaoliu1_month_day!A28)</f>
         <v/>
       </c>
       <c r="K33" s="18" t="str">
@@ -3550,7 +3551,7 @@
         <v/>
       </c>
       <c r="J35" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G31="","",_6tuoxiaogaoliu_month_day!G31)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A30="","",_6tuoxiaogaoliu1_month_day!A30)</f>
         <v/>
       </c>
       <c r="K35" s="18" t="str">
@@ -3661,7 +3662,7 @@
         <v/>
       </c>
       <c r="J37" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G33="","",_6tuoxiaogaoliu_month_day!G33)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A32="","",_6tuoxiaogaoliu1_month_day!A32)</f>
         <v/>
       </c>
       <c r="K37" s="18" t="str">
@@ -3775,7 +3776,7 @@
         <v/>
       </c>
       <c r="J39" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G35="","",_6tuoxiaogaoliu_month_day!G35)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A34="","",_6tuoxiaogaoliu1_month_day!A34)</f>
         <v/>
       </c>
       <c r="K39" s="18" t="str">
@@ -3883,7 +3884,7 @@
         <v/>
       </c>
       <c r="J41" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G37="","",_6tuoxiaogaoliu_month_day!G37)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A36="","",_6tuoxiaogaoliu1_month_day!A36)</f>
         <v/>
       </c>
       <c r="K41" s="18" t="str">
@@ -3994,7 +3995,7 @@
         <v/>
       </c>
       <c r="J43" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G39="","",_6tuoxiaogaoliu_month_day!G39)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A38="","",_6tuoxiaogaoliu1_month_day!A38)</f>
         <v/>
       </c>
       <c r="K43" s="18" t="str">
@@ -4108,7 +4109,7 @@
         <v/>
       </c>
       <c r="J45" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G41="","",_6tuoxiaogaoliu_month_day!G41)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A40="","",_6tuoxiaogaoliu1_month_day!A40)</f>
         <v/>
       </c>
       <c r="K45" s="18" t="str">
@@ -4216,7 +4217,7 @@
         <v/>
       </c>
       <c r="J47" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G43="","",_6tuoxiaogaoliu_month_day!G43)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A42="","",_6tuoxiaogaoliu1_month_day!A42)</f>
         <v/>
       </c>
       <c r="K47" s="18" t="str">
@@ -4327,7 +4328,7 @@
         <v/>
       </c>
       <c r="J49" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G45="","",_6tuoxiaogaoliu_month_day!G45)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A44="","",_6tuoxiaogaoliu1_month_day!A44)</f>
         <v/>
       </c>
       <c r="K49" s="18" t="str">
@@ -4441,7 +4442,7 @@
         <v/>
       </c>
       <c r="J51" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G47="","",_6tuoxiaogaoliu_month_day!G47)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A46="","",_6tuoxiaogaoliu1_month_day!A46)</f>
         <v/>
       </c>
       <c r="K51" s="18" t="str">
@@ -4549,7 +4550,7 @@
         <v/>
       </c>
       <c r="J53" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G49="","",_6tuoxiaogaoliu_month_day!G49)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A48="","",_6tuoxiaogaoliu1_month_day!A48)</f>
         <v/>
       </c>
       <c r="K53" s="18" t="str">
@@ -4660,7 +4661,7 @@
         <v/>
       </c>
       <c r="J55" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G51="","",_6tuoxiaogaoliu_month_day!G51)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A50="","",_6tuoxiaogaoliu1_month_day!A50)</f>
         <v/>
       </c>
       <c r="K55" s="18" t="str">
@@ -4774,7 +4775,7 @@
         <v/>
       </c>
       <c r="J57" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G53="","",_6tuoxiaogaoliu_month_day!G53)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A52="","",_6tuoxiaogaoliu1_month_day!A52)</f>
         <v/>
       </c>
       <c r="K57" s="18" t="str">
@@ -4882,7 +4883,7 @@
         <v/>
       </c>
       <c r="J59" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G55="","",_6tuoxiaogaoliu_month_day!G55)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A54="","",_6tuoxiaogaoliu1_month_day!A54)</f>
         <v/>
       </c>
       <c r="K59" s="18" t="str">
@@ -4993,7 +4994,7 @@
         <v/>
       </c>
       <c r="J61" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G57="","",_6tuoxiaogaoliu_month_day!G57)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A56="","",_6tuoxiaogaoliu1_month_day!A56)</f>
         <v/>
       </c>
       <c r="K61" s="18" t="str">
@@ -5107,7 +5108,7 @@
         <v/>
       </c>
       <c r="J63" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G59="","",_6tuoxiaogaoliu_month_day!G59)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A58="","",_6tuoxiaogaoliu1_month_day!A58)</f>
         <v/>
       </c>
       <c r="K63" s="18" t="str">
@@ -5215,7 +5216,7 @@
         <v/>
       </c>
       <c r="J65" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G61="","",_6tuoxiaogaoliu_month_day!G61)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A60="","",_6tuoxiaogaoliu1_month_day!A60)</f>
         <v/>
       </c>
       <c r="K65" s="18" t="str">
@@ -5326,7 +5327,7 @@
         <v/>
       </c>
       <c r="J67" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G63="","",_6tuoxiaogaoliu_month_day!G63)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A62="","",_6tuoxiaogaoliu1_month_day!A62)</f>
         <v/>
       </c>
       <c r="K67" s="18" t="str">
@@ -5440,7 +5441,7 @@
         <v/>
       </c>
       <c r="J69" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G65="","",_6tuoxiaogaoliu_month_day!G65)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A64="","",_6tuoxiaogaoliu1_month_day!A64)</f>
         <v/>
       </c>
       <c r="K69" s="18" t="str">
@@ -5548,7 +5549,7 @@
         <v/>
       </c>
       <c r="J71" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G67="","",_6tuoxiaogaoliu_month_day!G67)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A66="","",_6tuoxiaogaoliu1_month_day!A66)</f>
         <v/>
       </c>
       <c r="K71" s="18" t="str">
@@ -5659,7 +5660,7 @@
         <v/>
       </c>
       <c r="J73" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G69="","",_6tuoxiaogaoliu_month_day!G69)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A68="","",_6tuoxiaogaoliu1_month_day!A68)</f>
         <v/>
       </c>
       <c r="K73" s="18" t="str">
@@ -5773,7 +5774,7 @@
         <v/>
       </c>
       <c r="J75" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G71="","",_6tuoxiaogaoliu_month_day!G71)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A70="","",_6tuoxiaogaoliu1_month_day!A70)</f>
         <v/>
       </c>
       <c r="K75" s="18" t="str">
@@ -5881,7 +5882,7 @@
         <v/>
       </c>
       <c r="J77" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G73="","",_6tuoxiaogaoliu_month_day!G73)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A72="","",_6tuoxiaogaoliu1_month_day!A72)</f>
         <v/>
       </c>
       <c r="K77" s="18" t="str">
@@ -5992,7 +5993,7 @@
         <v/>
       </c>
       <c r="J79" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G75="","",_6tuoxiaogaoliu_month_day!G75)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A74="","",_6tuoxiaogaoliu1_month_day!A74)</f>
         <v/>
       </c>
       <c r="K79" s="18" t="str">
@@ -6106,7 +6107,7 @@
         <v/>
       </c>
       <c r="J81" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G77="","",_6tuoxiaogaoliu_month_day!G77)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A76="","",_6tuoxiaogaoliu1_month_day!A76)</f>
         <v/>
       </c>
       <c r="K81" s="18" t="str">
@@ -6214,7 +6215,7 @@
         <v/>
       </c>
       <c r="J83" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G79="","",_6tuoxiaogaoliu_month_day!G79)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A78="","",_6tuoxiaogaoliu1_month_day!A78)</f>
         <v/>
       </c>
       <c r="K83" s="18" t="str">
@@ -6325,7 +6326,7 @@
         <v/>
       </c>
       <c r="J85" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G81="","",_6tuoxiaogaoliu_month_day!G81)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A80="","",_6tuoxiaogaoliu1_month_day!A80)</f>
         <v/>
       </c>
       <c r="K85" s="18" t="str">
@@ -6439,7 +6440,7 @@
         <v/>
       </c>
       <c r="J87" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G83="","",_6tuoxiaogaoliu_month_day!G83)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A82="","",_6tuoxiaogaoliu1_month_day!A82)</f>
         <v/>
       </c>
       <c r="K87" s="18" t="str">
@@ -6547,7 +6548,7 @@
         <v/>
       </c>
       <c r="J89" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G85="","",_6tuoxiaogaoliu_month_day!G85)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A84="","",_6tuoxiaogaoliu1_month_day!A84)</f>
         <v/>
       </c>
       <c r="K89" s="18" t="str">
@@ -6658,7 +6659,7 @@
         <v/>
       </c>
       <c r="J91" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G87="","",_6tuoxiaogaoliu_month_day!G87)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A86="","",_6tuoxiaogaoliu1_month_day!A86)</f>
         <v/>
       </c>
       <c r="K91" s="18" t="str">
@@ -6772,7 +6773,7 @@
         <v/>
       </c>
       <c r="J93" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G89="","",_6tuoxiaogaoliu_month_day!G89)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A88="","",_6tuoxiaogaoliu1_month_day!A88)</f>
         <v/>
       </c>
       <c r="K93" s="18" t="str">
@@ -6880,7 +6881,7 @@
         <v/>
       </c>
       <c r="J95" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G91="","",_6tuoxiaogaoliu_month_day!G91)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A90="","",_6tuoxiaogaoliu1_month_day!A90)</f>
         <v/>
       </c>
       <c r="K95" s="18" t="str">
@@ -6991,7 +6992,7 @@
         <v/>
       </c>
       <c r="J97" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G93="","",_6tuoxiaogaoliu_month_day!G93)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A92="","",_6tuoxiaogaoliu1_month_day!A92)</f>
         <v/>
       </c>
       <c r="K97" s="18" t="str">
@@ -7105,7 +7106,7 @@
         <v/>
       </c>
       <c r="J99" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G95="","",_6tuoxiaogaoliu_month_day!G95)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A94="","",_6tuoxiaogaoliu1_month_day!A94)</f>
         <v/>
       </c>
       <c r="K99" s="18" t="str">
@@ -7213,7 +7214,7 @@
         <v/>
       </c>
       <c r="J101" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G97="","",_6tuoxiaogaoliu_month_day!G97)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A96="","",_6tuoxiaogaoliu1_month_day!A96)</f>
         <v/>
       </c>
       <c r="K101" s="18" t="str">
@@ -7324,7 +7325,7 @@
         <v/>
       </c>
       <c r="J103" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G99="","",_6tuoxiaogaoliu_month_day!G99)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A98="","",_6tuoxiaogaoliu1_month_day!A98)</f>
         <v/>
       </c>
       <c r="K103" s="18" t="str">
@@ -7438,7 +7439,7 @@
         <v/>
       </c>
       <c r="J105" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G101="","",_6tuoxiaogaoliu_month_day!G101)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A100="","",_6tuoxiaogaoliu1_month_day!A100)</f>
         <v/>
       </c>
       <c r="K105" s="18" t="str">
@@ -7546,7 +7547,7 @@
         <v/>
       </c>
       <c r="J107" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G103="","",_6tuoxiaogaoliu_month_day!G103)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A102="","",_6tuoxiaogaoliu1_month_day!A102)</f>
         <v/>
       </c>
       <c r="K107" s="18" t="str">
@@ -7657,7 +7658,7 @@
         <v/>
       </c>
       <c r="J109" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G105="","",_6tuoxiaogaoliu_month_day!G105)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A104="","",_6tuoxiaogaoliu1_month_day!A104)</f>
         <v/>
       </c>
       <c r="K109" s="18" t="str">
@@ -7771,7 +7772,7 @@
         <v/>
       </c>
       <c r="J111" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G107="","",_6tuoxiaogaoliu_month_day!G107)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A106="","",_6tuoxiaogaoliu1_month_day!A106)</f>
         <v/>
       </c>
       <c r="K111" s="18" t="str">
@@ -7879,7 +7880,7 @@
         <v/>
       </c>
       <c r="J113" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G109="","",_6tuoxiaogaoliu_month_day!G109)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A108="","",_6tuoxiaogaoliu1_month_day!A108)</f>
         <v/>
       </c>
       <c r="K113" s="18" t="str">
@@ -7990,7 +7991,7 @@
         <v/>
       </c>
       <c r="J115" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G111="","",_6tuoxiaogaoliu_month_day!G111)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A110="","",_6tuoxiaogaoliu1_month_day!A110)</f>
         <v/>
       </c>
       <c r="K115" s="18" t="str">
@@ -8104,7 +8105,7 @@
         <v/>
       </c>
       <c r="J117" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G113="","",_6tuoxiaogaoliu_month_day!G113)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A112="","",_6tuoxiaogaoliu1_month_day!A112)</f>
         <v/>
       </c>
       <c r="K117" s="18" t="str">
@@ -8212,7 +8213,7 @@
         <v/>
       </c>
       <c r="J119" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G115="","",_6tuoxiaogaoliu_month_day!G115)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A114="","",_6tuoxiaogaoliu1_month_day!A114)</f>
         <v/>
       </c>
       <c r="K119" s="18" t="str">
@@ -8323,7 +8324,7 @@
         <v/>
       </c>
       <c r="J121" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G117="","",_6tuoxiaogaoliu_month_day!G117)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A116="","",_6tuoxiaogaoliu1_month_day!A116)</f>
         <v/>
       </c>
       <c r="K121" s="18" t="str">
@@ -8435,7 +8436,7 @@
         <v/>
       </c>
       <c r="J123" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G119="","",_6tuoxiaogaoliu_month_day!G119)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A118="","",_6tuoxiaogaoliu1_month_day!A118)</f>
         <v/>
       </c>
       <c r="K123" s="18" t="str">
@@ -8543,7 +8544,7 @@
         <v/>
       </c>
       <c r="J125" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G121="","",_6tuoxiaogaoliu_month_day!G121)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A120="","",_6tuoxiaogaoliu1_month_day!A120)</f>
         <v/>
       </c>
       <c r="K125" s="18" t="str">
@@ -8654,7 +8655,7 @@
         <v/>
       </c>
       <c r="J127" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G123="","",_6tuoxiaogaoliu_month_day!G123)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A122="","",_6tuoxiaogaoliu1_month_day!A122)</f>
         <v/>
       </c>
       <c r="K127" s="18" t="str">
@@ -8768,7 +8769,7 @@
         <v/>
       </c>
       <c r="J129" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G125="","",_6tuoxiaogaoliu_month_day!G125)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A124="","",_6tuoxiaogaoliu1_month_day!A124)</f>
         <v/>
       </c>
       <c r="K129" s="18" t="str">
@@ -8876,7 +8877,7 @@
         <v/>
       </c>
       <c r="J131" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G127="","",_6tuoxiaogaoliu_month_day!G127)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A126="","",_6tuoxiaogaoliu1_month_day!A126)</f>
         <v/>
       </c>
       <c r="K131" s="18" t="str">
@@ -8987,7 +8988,7 @@
         <v/>
       </c>
       <c r="J133" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G129="","",_6tuoxiaogaoliu_month_day!G129)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A128="","",_6tuoxiaogaoliu1_month_day!A128)</f>
         <v/>
       </c>
       <c r="K133" s="18" t="str">
@@ -9101,7 +9102,7 @@
         <v/>
       </c>
       <c r="J135" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G131="","",_6tuoxiaogaoliu_month_day!G131)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A130="","",_6tuoxiaogaoliu1_month_day!A130)</f>
         <v/>
       </c>
       <c r="K135" s="18" t="str">
@@ -9209,7 +9210,7 @@
         <v/>
       </c>
       <c r="J137" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G133="","",_6tuoxiaogaoliu_month_day!G133)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A132="","",_6tuoxiaogaoliu1_month_day!A132)</f>
         <v/>
       </c>
       <c r="K137" s="18" t="str">
@@ -9320,7 +9321,7 @@
         <v/>
       </c>
       <c r="J139" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G135="","",_6tuoxiaogaoliu_month_day!G135)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A134="","",_6tuoxiaogaoliu1_month_day!A134)</f>
         <v/>
       </c>
       <c r="K139" s="18" t="str">
@@ -9434,7 +9435,7 @@
         <v/>
       </c>
       <c r="J141" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G137="","",_6tuoxiaogaoliu_month_day!G137)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A136="","",_6tuoxiaogaoliu1_month_day!A136)</f>
         <v/>
       </c>
       <c r="K141" s="18" t="str">
@@ -9542,7 +9543,7 @@
         <v/>
       </c>
       <c r="J143" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G139="","",_6tuoxiaogaoliu_month_day!G139)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A138="","",_6tuoxiaogaoliu1_month_day!A138)</f>
         <v/>
       </c>
       <c r="K143" s="18" t="str">
@@ -9653,7 +9654,7 @@
         <v/>
       </c>
       <c r="J145" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G141="","",_6tuoxiaogaoliu_month_day!G141)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A140="","",_6tuoxiaogaoliu1_month_day!A140)</f>
         <v/>
       </c>
       <c r="K145" s="18" t="str">
@@ -9767,7 +9768,7 @@
         <v/>
       </c>
       <c r="J147" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G143="","",_6tuoxiaogaoliu_month_day!G143)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A142="","",_6tuoxiaogaoliu1_month_day!A142)</f>
         <v/>
       </c>
       <c r="K147" s="18" t="str">
@@ -9875,7 +9876,7 @@
         <v/>
       </c>
       <c r="J149" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G145="","",_6tuoxiaogaoliu_month_day!G145)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A144="","",_6tuoxiaogaoliu1_month_day!A144)</f>
         <v/>
       </c>
       <c r="K149" s="18" t="str">
@@ -9986,7 +9987,7 @@
         <v/>
       </c>
       <c r="J151" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G147="","",_6tuoxiaogaoliu_month_day!G147)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A146="","",_6tuoxiaogaoliu1_month_day!A146)</f>
         <v/>
       </c>
       <c r="K151" s="18" t="str">
@@ -10100,7 +10101,7 @@
         <v/>
       </c>
       <c r="J153" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G149="","",_6tuoxiaogaoliu_month_day!G149)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A148="","",_6tuoxiaogaoliu1_month_day!A148)</f>
         <v/>
       </c>
       <c r="K153" s="18" t="str">
@@ -10208,7 +10209,7 @@
         <v/>
       </c>
       <c r="J155" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G151="","",_6tuoxiaogaoliu_month_day!G151)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A150="","",_6tuoxiaogaoliu1_month_day!A150)</f>
         <v/>
       </c>
       <c r="K155" s="18" t="str">
@@ -10317,7 +10318,7 @@
         <v/>
       </c>
       <c r="J157" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G153="","",_6tuoxiaogaoliu_month_day!G153)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A152="","",_6tuoxiaogaoliu1_month_day!A152)</f>
         <v/>
       </c>
       <c r="K157" s="18" t="str">
@@ -10431,7 +10432,7 @@
         <v/>
       </c>
       <c r="J159" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G155="","",_6tuoxiaogaoliu_month_day!G155)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A154="","",_6tuoxiaogaoliu1_month_day!A154)</f>
         <v/>
       </c>
       <c r="K159" s="18" t="str">
@@ -10539,7 +10540,7 @@
         <v/>
       </c>
       <c r="J161" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G157="","",_6tuoxiaogaoliu_month_day!G157)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A156="","",_6tuoxiaogaoliu1_month_day!A156)</f>
         <v/>
       </c>
       <c r="K161" s="18" t="str">
@@ -10650,7 +10651,7 @@
         <v/>
       </c>
       <c r="J163" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G159="","",_6tuoxiaogaoliu_month_day!G159)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A158="","",_6tuoxiaogaoliu1_month_day!A158)</f>
         <v/>
       </c>
       <c r="K163" s="18" t="str">
@@ -10764,7 +10765,7 @@
         <v/>
       </c>
       <c r="J165" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G161="","",_6tuoxiaogaoliu_month_day!G161)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A160="","",_6tuoxiaogaoliu1_month_day!A160)</f>
         <v/>
       </c>
       <c r="K165" s="18" t="str">
@@ -10872,7 +10873,7 @@
         <v/>
       </c>
       <c r="J167" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G163="","",_6tuoxiaogaoliu_month_day!G163)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A162="","",_6tuoxiaogaoliu1_month_day!A162)</f>
         <v/>
       </c>
       <c r="K167" s="18" t="str">
@@ -10983,7 +10984,7 @@
         <v/>
       </c>
       <c r="J169" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G165="","",_6tuoxiaogaoliu_month_day!G165)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A164="","",_6tuoxiaogaoliu1_month_day!A164)</f>
         <v/>
       </c>
       <c r="K169" s="18" t="str">
@@ -11097,7 +11098,7 @@
         <v/>
       </c>
       <c r="J171" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G167="","",_6tuoxiaogaoliu_month_day!G167)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A166="","",_6tuoxiaogaoliu1_month_day!A166)</f>
         <v/>
       </c>
       <c r="K171" s="18" t="str">
@@ -11205,7 +11206,7 @@
         <v/>
       </c>
       <c r="J173" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G169="","",_6tuoxiaogaoliu_month_day!G169)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A168="","",_6tuoxiaogaoliu1_month_day!A168)</f>
         <v/>
       </c>
       <c r="K173" s="18" t="str">
@@ -11316,7 +11317,7 @@
         <v/>
       </c>
       <c r="J175" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G171="","",_6tuoxiaogaoliu_month_day!G171)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A170="","",_6tuoxiaogaoliu1_month_day!A170)</f>
         <v/>
       </c>
       <c r="K175" s="18" t="str">
@@ -11430,7 +11431,7 @@
         <v/>
       </c>
       <c r="J177" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G173="","",_6tuoxiaogaoliu_month_day!G173)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A172="","",_6tuoxiaogaoliu1_month_day!A172)</f>
         <v/>
       </c>
       <c r="K177" s="18" t="str">
@@ -11538,7 +11539,7 @@
         <v/>
       </c>
       <c r="J179" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G175="","",_6tuoxiaogaoliu_month_day!G175)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A174="","",_6tuoxiaogaoliu1_month_day!A174)</f>
         <v/>
       </c>
       <c r="K179" s="18" t="str">
@@ -11649,7 +11650,7 @@
         <v/>
       </c>
       <c r="J181" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G177="","",_6tuoxiaogaoliu_month_day!G177)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A176="","",_6tuoxiaogaoliu1_month_day!A176)</f>
         <v/>
       </c>
       <c r="K181" s="18" t="str">
@@ -11763,7 +11764,7 @@
         <v/>
       </c>
       <c r="J183" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G179="","",_6tuoxiaogaoliu_month_day!G179)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A178="","",_6tuoxiaogaoliu1_month_day!A178)</f>
         <v/>
       </c>
       <c r="K183" s="18" t="str">
@@ -11871,7 +11872,7 @@
         <v/>
       </c>
       <c r="J185" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G181="","",_6tuoxiaogaoliu_month_day!G181)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A180="","",_6tuoxiaogaoliu1_month_day!A180)</f>
         <v/>
       </c>
       <c r="K185" s="18" t="str">
@@ -11982,7 +11983,7 @@
         <v/>
       </c>
       <c r="J187" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G183="","",_6tuoxiaogaoliu_month_day!G183)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A182="","",_6tuoxiaogaoliu1_month_day!A182)</f>
         <v/>
       </c>
       <c r="K187" s="18" t="str">
@@ -12096,7 +12097,7 @@
         <v/>
       </c>
       <c r="J189" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G185="","",_6tuoxiaogaoliu_month_day!G185)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A184="","",_6tuoxiaogaoliu1_month_day!A184)</f>
         <v/>
       </c>
       <c r="K189" s="18" t="str">
@@ -12204,7 +12205,7 @@
         <v/>
       </c>
       <c r="J191" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G187="","",_6tuoxiaogaoliu_month_day!G187)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A186="","",_6tuoxiaogaoliu1_month_day!A186)</f>
         <v/>
       </c>
       <c r="K191" s="18" t="str">
@@ -12315,7 +12316,7 @@
         <v/>
       </c>
       <c r="J193" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G189="","",_6tuoxiaogaoliu_month_day!G189)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A188="","",_6tuoxiaogaoliu1_month_day!A188)</f>
         <v/>
       </c>
       <c r="K193" s="18" t="str">
@@ -12429,7 +12430,7 @@
         <v/>
       </c>
       <c r="J195" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G191="","",_6tuoxiaogaoliu_month_day!G191)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A190="","",_6tuoxiaogaoliu1_month_day!A190)</f>
         <v/>
       </c>
       <c r="K195" s="18" t="str">
@@ -12537,7 +12538,7 @@
         <v/>
       </c>
       <c r="J197" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G193="","",_6tuoxiaogaoliu_month_day!G193)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A192="","",_6tuoxiaogaoliu1_month_day!A192)</f>
         <v/>
       </c>
       <c r="K197" s="18" t="str">
@@ -12648,7 +12649,7 @@
         <v/>
       </c>
       <c r="J199" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G195="","",_6tuoxiaogaoliu_month_day!G195)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A194="","",_6tuoxiaogaoliu1_month_day!A194)</f>
         <v/>
       </c>
       <c r="K199" s="18" t="str">
@@ -12762,7 +12763,7 @@
         <v/>
       </c>
       <c r="J201" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G197="","",_6tuoxiaogaoliu_month_day!G197)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A196="","",_6tuoxiaogaoliu1_month_day!A196)</f>
         <v/>
       </c>
       <c r="K201" s="18" t="str">
@@ -12870,7 +12871,7 @@
         <v/>
       </c>
       <c r="J203" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G199="","",_6tuoxiaogaoliu_month_day!G199)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A198="","",_6tuoxiaogaoliu1_month_day!A198)</f>
         <v/>
       </c>
       <c r="K203" s="18" t="str">
@@ -12981,7 +12982,7 @@
         <v/>
       </c>
       <c r="J205" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G201="","",_6tuoxiaogaoliu_month_day!G201)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A200="","",_6tuoxiaogaoliu1_month_day!A200)</f>
         <v/>
       </c>
       <c r="K205" s="18" t="str">
@@ -13095,7 +13096,7 @@
         <v/>
       </c>
       <c r="J207" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G203="","",_6tuoxiaogaoliu_month_day!G203)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A202="","",_6tuoxiaogaoliu1_month_day!A202)</f>
         <v/>
       </c>
       <c r="K207" s="18" t="str">
@@ -13203,7 +13204,7 @@
         <v/>
       </c>
       <c r="J209" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G205="","",_6tuoxiaogaoliu_month_day!G205)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A204="","",_6tuoxiaogaoliu1_month_day!A204)</f>
         <v/>
       </c>
       <c r="K209" s="18" t="str">
@@ -13314,7 +13315,7 @@
         <v/>
       </c>
       <c r="J211" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G207="","",_6tuoxiaogaoliu_month_day!G207)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A206="","",_6tuoxiaogaoliu1_month_day!A206)</f>
         <v/>
       </c>
       <c r="K211" s="18" t="str">
@@ -13428,7 +13429,7 @@
         <v/>
       </c>
       <c r="J213" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G209="","",_6tuoxiaogaoliu_month_day!G209)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A208="","",_6tuoxiaogaoliu1_month_day!A208)</f>
         <v/>
       </c>
       <c r="K213" s="18" t="str">
@@ -13536,7 +13537,7 @@
         <v/>
       </c>
       <c r="J215" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G211="","",_6tuoxiaogaoliu_month_day!G211)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A210="","",_6tuoxiaogaoliu1_month_day!A210)</f>
         <v/>
       </c>
       <c r="K215" s="18" t="str">
@@ -13647,7 +13648,7 @@
         <v/>
       </c>
       <c r="J217" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G213="","",_6tuoxiaogaoliu_month_day!G213)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A212="","",_6tuoxiaogaoliu1_month_day!A212)</f>
         <v/>
       </c>
       <c r="K217" s="18" t="str">
@@ -13761,7 +13762,7 @@
         <v/>
       </c>
       <c r="J219" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G215="","",_6tuoxiaogaoliu_month_day!G215)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A214="","",_6tuoxiaogaoliu1_month_day!A214)</f>
         <v/>
       </c>
       <c r="K219" s="18" t="str">
@@ -13869,7 +13870,7 @@
         <v/>
       </c>
       <c r="J221" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G217="","",_6tuoxiaogaoliu_month_day!G217)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A216="","",_6tuoxiaogaoliu1_month_day!A216)</f>
         <v/>
       </c>
       <c r="K221" s="18" t="str">
@@ -13980,7 +13981,7 @@
         <v/>
       </c>
       <c r="J223" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G219="","",_6tuoxiaogaoliu_month_day!G219)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A218="","",_6tuoxiaogaoliu1_month_day!A218)</f>
         <v/>
       </c>
       <c r="K223" s="18" t="str">
@@ -14094,7 +14095,7 @@
         <v/>
       </c>
       <c r="J225" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G221="","",_6tuoxiaogaoliu_month_day!G221)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A220="","",_6tuoxiaogaoliu1_month_day!A220)</f>
         <v/>
       </c>
       <c r="K225" s="18" t="str">
@@ -14202,7 +14203,7 @@
         <v/>
       </c>
       <c r="J227" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G223="","",_6tuoxiaogaoliu_month_day!G223)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A222="","",_6tuoxiaogaoliu1_month_day!A222)</f>
         <v/>
       </c>
       <c r="K227" s="18" t="str">
@@ -14313,7 +14314,7 @@
         <v/>
       </c>
       <c r="J229" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G225="","",_6tuoxiaogaoliu_month_day!G225)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A224="","",_6tuoxiaogaoliu1_month_day!A224)</f>
         <v/>
       </c>
       <c r="K229" s="18" t="str">
@@ -14427,7 +14428,7 @@
         <v/>
       </c>
       <c r="J231" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G227="","",_6tuoxiaogaoliu_month_day!G227)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A226="","",_6tuoxiaogaoliu1_month_day!A226)</f>
         <v/>
       </c>
       <c r="K231" s="18" t="str">
@@ -14535,7 +14536,7 @@
         <v/>
       </c>
       <c r="J233" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G229="","",_6tuoxiaogaoliu_month_day!G229)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A228="","",_6tuoxiaogaoliu1_month_day!A228)</f>
         <v/>
       </c>
       <c r="K233" s="18" t="str">
@@ -14646,7 +14647,7 @@
         <v/>
       </c>
       <c r="J235" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G231="","",_6tuoxiaogaoliu_month_day!G231)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A230="","",_6tuoxiaogaoliu1_month_day!A230)</f>
         <v/>
       </c>
       <c r="K235" s="18" t="str">
@@ -14760,7 +14761,7 @@
         <v/>
       </c>
       <c r="J237" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G233="","",_6tuoxiaogaoliu_month_day!G233)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A232="","",_6tuoxiaogaoliu1_month_day!A232)</f>
         <v/>
       </c>
       <c r="K237" s="18" t="str">
@@ -14868,7 +14869,7 @@
         <v/>
       </c>
       <c r="J239" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G235="","",_6tuoxiaogaoliu_month_day!G235)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A234="","",_6tuoxiaogaoliu1_month_day!A234)</f>
         <v/>
       </c>
       <c r="K239" s="18" t="str">
@@ -14979,7 +14980,7 @@
         <v/>
       </c>
       <c r="J241" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G237="","",_6tuoxiaogaoliu_month_day!G237)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A236="","",_6tuoxiaogaoliu1_month_day!A236)</f>
         <v/>
       </c>
       <c r="K241" s="18" t="str">
@@ -15093,7 +15094,7 @@
         <v/>
       </c>
       <c r="J243" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G239="","",_6tuoxiaogaoliu_month_day!G239)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A238="","",_6tuoxiaogaoliu1_month_day!A238)</f>
         <v/>
       </c>
       <c r="K243" s="18" t="str">
@@ -15201,7 +15202,7 @@
         <v/>
       </c>
       <c r="J245" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G241="","",_6tuoxiaogaoliu_month_day!G241)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A240="","",_6tuoxiaogaoliu1_month_day!A240)</f>
         <v/>
       </c>
       <c r="K245" s="18" t="str">
@@ -15312,7 +15313,7 @@
         <v/>
       </c>
       <c r="J247" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G243="","",_6tuoxiaogaoliu_month_day!G243)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A242="","",_6tuoxiaogaoliu1_month_day!A242)</f>
         <v/>
       </c>
       <c r="K247" s="18" t="str">
@@ -15426,7 +15427,7 @@
         <v/>
       </c>
       <c r="J249" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G245="","",_6tuoxiaogaoliu_month_day!G245)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A244="","",_6tuoxiaogaoliu1_month_day!A244)</f>
         <v/>
       </c>
       <c r="K249" s="18" t="str">
@@ -15534,7 +15535,7 @@
         <v/>
       </c>
       <c r="J251" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G247="","",_6tuoxiaogaoliu_month_day!G247)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A246="","",_6tuoxiaogaoliu1_month_day!A246)</f>
         <v/>
       </c>
       <c r="K251" s="18" t="str">
@@ -15645,7 +15646,7 @@
         <v/>
       </c>
       <c r="J253" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G249="","",_6tuoxiaogaoliu_month_day!G249)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A248="","",_6tuoxiaogaoliu1_month_day!A248)</f>
         <v/>
       </c>
       <c r="K253" s="18" t="str">
@@ -15759,7 +15760,7 @@
         <v/>
       </c>
       <c r="J255" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G251="","",_6tuoxiaogaoliu_month_day!G251)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A250="","",_6tuoxiaogaoliu1_month_day!A250)</f>
         <v/>
       </c>
       <c r="K255" s="18" t="str">
@@ -15867,7 +15868,7 @@
         <v/>
       </c>
       <c r="J257" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G253="","",_6tuoxiaogaoliu_month_day!G253)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A252="","",_6tuoxiaogaoliu1_month_day!A252)</f>
         <v/>
       </c>
       <c r="K257" s="18" t="str">
@@ -15978,7 +15979,7 @@
         <v/>
       </c>
       <c r="J259" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G255="","",_6tuoxiaogaoliu_month_day!G255)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A254="","",_6tuoxiaogaoliu1_month_day!A254)</f>
         <v/>
       </c>
       <c r="K259" s="18" t="str">
@@ -16092,7 +16093,7 @@
         <v/>
       </c>
       <c r="J261" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G257="","",_6tuoxiaogaoliu_month_day!G257)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A256="","",_6tuoxiaogaoliu1_month_day!A256)</f>
         <v/>
       </c>
       <c r="K261" s="18" t="str">
@@ -16200,7 +16201,7 @@
         <v/>
       </c>
       <c r="J263" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G259="","",_6tuoxiaogaoliu_month_day!G259)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A258="","",_6tuoxiaogaoliu1_month_day!A258)</f>
         <v/>
       </c>
       <c r="K263" s="18" t="str">
@@ -16311,7 +16312,7 @@
         <v/>
       </c>
       <c r="J265" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G261="","",_6tuoxiaogaoliu_month_day!G261)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A260="","",_6tuoxiaogaoliu1_month_day!A260)</f>
         <v/>
       </c>
       <c r="K265" s="18" t="str">
@@ -16425,7 +16426,7 @@
         <v/>
       </c>
       <c r="J267" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G263="","",_6tuoxiaogaoliu_month_day!G263)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A262="","",_6tuoxiaogaoliu1_month_day!A262)</f>
         <v/>
       </c>
       <c r="K267" s="18" t="str">
@@ -16533,7 +16534,7 @@
         <v/>
       </c>
       <c r="J269" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G265="","",_6tuoxiaogaoliu_month_day!G265)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A264="","",_6tuoxiaogaoliu1_month_day!A264)</f>
         <v/>
       </c>
       <c r="K269" s="18" t="str">
@@ -16644,7 +16645,7 @@
         <v/>
       </c>
       <c r="J271" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G267="","",_6tuoxiaogaoliu_month_day!G267)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A266="","",_6tuoxiaogaoliu1_month_day!A266)</f>
         <v/>
       </c>
       <c r="K271" s="18" t="str">
@@ -16758,7 +16759,7 @@
         <v/>
       </c>
       <c r="J273" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G269="","",_6tuoxiaogaoliu_month_day!G269)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A268="","",_6tuoxiaogaoliu1_month_day!A268)</f>
         <v/>
       </c>
       <c r="K273" s="18" t="str">
@@ -16866,7 +16867,7 @@
         <v/>
       </c>
       <c r="J275" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G271="","",_6tuoxiaogaoliu_month_day!G271)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A270="","",_6tuoxiaogaoliu1_month_day!A270)</f>
         <v/>
       </c>
       <c r="K275" s="18" t="str">
@@ -16977,7 +16978,7 @@
         <v/>
       </c>
       <c r="J277" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G273="","",_6tuoxiaogaoliu_month_day!G273)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A272="","",_6tuoxiaogaoliu1_month_day!A272)</f>
         <v/>
       </c>
       <c r="K277" s="18" t="str">
@@ -17091,7 +17092,7 @@
         <v/>
       </c>
       <c r="J279" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G275="","",_6tuoxiaogaoliu_month_day!G275)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A274="","",_6tuoxiaogaoliu1_month_day!A274)</f>
         <v/>
       </c>
       <c r="K279" s="18" t="str">
@@ -17199,7 +17200,7 @@
         <v/>
       </c>
       <c r="J281" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G277="","",_6tuoxiaogaoliu_month_day!G277)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A276="","",_6tuoxiaogaoliu1_month_day!A276)</f>
         <v/>
       </c>
       <c r="K281" s="18" t="str">
@@ -17310,7 +17311,7 @@
         <v/>
       </c>
       <c r="J283" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G279="","",_6tuoxiaogaoliu_month_day!G279)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A278="","",_6tuoxiaogaoliu1_month_day!A278)</f>
         <v/>
       </c>
       <c r="K283" s="18" t="str">
@@ -17424,7 +17425,7 @@
         <v/>
       </c>
       <c r="J285" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G281="","",_6tuoxiaogaoliu_month_day!G281)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A280="","",_6tuoxiaogaoliu1_month_day!A280)</f>
         <v/>
       </c>
       <c r="K285" s="18" t="str">
@@ -17532,7 +17533,7 @@
         <v/>
       </c>
       <c r="J287" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G283="","",_6tuoxiaogaoliu_month_day!G283)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A282="","",_6tuoxiaogaoliu1_month_day!A282)</f>
         <v/>
       </c>
       <c r="K287" s="18" t="str">
@@ -17643,7 +17644,7 @@
         <v/>
       </c>
       <c r="J289" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G285="","",_6tuoxiaogaoliu_month_day!G285)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A284="","",_6tuoxiaogaoliu1_month_day!A284)</f>
         <v/>
       </c>
       <c r="K289" s="18" t="str">
@@ -17757,7 +17758,7 @@
         <v/>
       </c>
       <c r="J291" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G287="","",_6tuoxiaogaoliu_month_day!G287)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A286="","",_6tuoxiaogaoliu1_month_day!A286)</f>
         <v/>
       </c>
       <c r="K291" s="18" t="str">
@@ -17865,7 +17866,7 @@
         <v/>
       </c>
       <c r="J293" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G289="","",_6tuoxiaogaoliu_month_day!G289)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A288="","",_6tuoxiaogaoliu1_month_day!A288)</f>
         <v/>
       </c>
       <c r="K293" s="18" t="str">
@@ -17976,7 +17977,7 @@
         <v/>
       </c>
       <c r="J295" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G291="","",_6tuoxiaogaoliu_month_day!G291)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A290="","",_6tuoxiaogaoliu1_month_day!A290)</f>
         <v/>
       </c>
       <c r="K295" s="18" t="str">
@@ -18090,7 +18091,7 @@
         <v/>
       </c>
       <c r="J297" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G293="","",_6tuoxiaogaoliu_month_day!G293)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A292="","",_6tuoxiaogaoliu1_month_day!A292)</f>
         <v/>
       </c>
       <c r="K297" s="18" t="str">
@@ -18198,7 +18199,7 @@
         <v/>
       </c>
       <c r="J299" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G295="","",_6tuoxiaogaoliu_month_day!G295)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A294="","",_6tuoxiaogaoliu1_month_day!A294)</f>
         <v/>
       </c>
       <c r="K299" s="18" t="str">
@@ -18309,7 +18310,7 @@
         <v/>
       </c>
       <c r="J301" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G297="","",_6tuoxiaogaoliu_month_day!G297)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A296="","",_6tuoxiaogaoliu1_month_day!A296)</f>
         <v/>
       </c>
       <c r="K301" s="18" t="str">
@@ -18423,7 +18424,7 @@
         <v/>
       </c>
       <c r="J303" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G299="","",_6tuoxiaogaoliu_month_day!G299)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A298="","",_6tuoxiaogaoliu1_month_day!A298)</f>
         <v/>
       </c>
       <c r="K303" s="18" t="str">
@@ -18531,7 +18532,7 @@
         <v/>
       </c>
       <c r="J305" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G301="","",_6tuoxiaogaoliu_month_day!G301)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A300="","",_6tuoxiaogaoliu1_month_day!A300)</f>
         <v/>
       </c>
       <c r="K305" s="18" t="str">
@@ -18642,7 +18643,7 @@
         <v/>
       </c>
       <c r="J307" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G303="","",_6tuoxiaogaoliu_month_day!G303)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A302="","",_6tuoxiaogaoliu1_month_day!A302)</f>
         <v/>
       </c>
       <c r="K307" s="18" t="str">
@@ -18756,7 +18757,7 @@
         <v/>
       </c>
       <c r="J309" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G305="","",_6tuoxiaogaoliu_month_day!G305)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A304="","",_6tuoxiaogaoliu1_month_day!A304)</f>
         <v/>
       </c>
       <c r="K309" s="18" t="str">
@@ -18864,7 +18865,7 @@
         <v/>
       </c>
       <c r="J311" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G307="","",_6tuoxiaogaoliu_month_day!G307)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A306="","",_6tuoxiaogaoliu1_month_day!A306)</f>
         <v/>
       </c>
       <c r="K311" s="18" t="str">
@@ -18975,7 +18976,7 @@
         <v/>
       </c>
       <c r="J313" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G309="","",_6tuoxiaogaoliu_month_day!G309)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A308="","",_6tuoxiaogaoliu1_month_day!A308)</f>
         <v/>
       </c>
       <c r="K313" s="18" t="str">
@@ -19089,7 +19090,7 @@
         <v/>
       </c>
       <c r="J315" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G311="","",_6tuoxiaogaoliu_month_day!G311)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A310="","",_6tuoxiaogaoliu1_month_day!A310)</f>
         <v/>
       </c>
       <c r="K315" s="18" t="str">
@@ -19197,7 +19198,7 @@
         <v/>
       </c>
       <c r="J317" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G313="","",_6tuoxiaogaoliu_month_day!G313)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A312="","",_6tuoxiaogaoliu1_month_day!A312)</f>
         <v/>
       </c>
       <c r="K317" s="18" t="str">
@@ -19308,7 +19309,7 @@
         <v/>
       </c>
       <c r="J319" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G315="","",_6tuoxiaogaoliu_month_day!G315)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A314="","",_6tuoxiaogaoliu1_month_day!A314)</f>
         <v/>
       </c>
       <c r="K319" s="18" t="str">
@@ -19422,7 +19423,7 @@
         <v/>
       </c>
       <c r="J321" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G317="","",_6tuoxiaogaoliu_month_day!G317)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A316="","",_6tuoxiaogaoliu1_month_day!A316)</f>
         <v/>
       </c>
       <c r="K321" s="18" t="str">
@@ -19530,7 +19531,7 @@
         <v/>
       </c>
       <c r="J323" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G319="","",_6tuoxiaogaoliu_month_day!G319)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A318="","",_6tuoxiaogaoliu1_month_day!A318)</f>
         <v/>
       </c>
       <c r="K323" s="18" t="str">
@@ -19641,7 +19642,7 @@
         <v/>
       </c>
       <c r="J325" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G321="","",_6tuoxiaogaoliu_month_day!G321)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A320="","",_6tuoxiaogaoliu1_month_day!A320)</f>
         <v/>
       </c>
       <c r="K325" s="18" t="str">
@@ -19755,7 +19756,7 @@
         <v/>
       </c>
       <c r="J327" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G323="","",_6tuoxiaogaoliu_month_day!G323)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A322="","",_6tuoxiaogaoliu1_month_day!A322)</f>
         <v/>
       </c>
       <c r="K327" s="18" t="str">
@@ -19863,7 +19864,7 @@
         <v/>
       </c>
       <c r="J329" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G325="","",_6tuoxiaogaoliu_month_day!G325)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A324="","",_6tuoxiaogaoliu1_month_day!A324)</f>
         <v/>
       </c>
       <c r="K329" s="18" t="str">
@@ -19974,7 +19975,7 @@
         <v/>
       </c>
       <c r="J331" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G327="","",_6tuoxiaogaoliu_month_day!G327)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A326="","",_6tuoxiaogaoliu1_month_day!A326)</f>
         <v/>
       </c>
       <c r="K331" s="18" t="str">
@@ -20088,7 +20089,7 @@
         <v/>
       </c>
       <c r="J333" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G329="","",_6tuoxiaogaoliu_month_day!G329)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A328="","",_6tuoxiaogaoliu1_month_day!A328)</f>
         <v/>
       </c>
       <c r="K333" s="18" t="str">
@@ -20196,7 +20197,7 @@
         <v/>
       </c>
       <c r="J335" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G331="","",_6tuoxiaogaoliu_month_day!G331)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A330="","",_6tuoxiaogaoliu1_month_day!A330)</f>
         <v/>
       </c>
       <c r="K335" s="18" t="str">
@@ -20307,7 +20308,7 @@
         <v/>
       </c>
       <c r="J337" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G333="","",_6tuoxiaogaoliu_month_day!G333)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A332="","",_6tuoxiaogaoliu1_month_day!A332)</f>
         <v/>
       </c>
       <c r="K337" s="18" t="str">
@@ -20421,7 +20422,7 @@
         <v/>
       </c>
       <c r="J339" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G335="","",_6tuoxiaogaoliu_month_day!G335)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A334="","",_6tuoxiaogaoliu1_month_day!A334)</f>
         <v/>
       </c>
       <c r="K339" s="18" t="str">
@@ -20529,7 +20530,7 @@
         <v/>
       </c>
       <c r="J341" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G337="","",_6tuoxiaogaoliu_month_day!G337)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A336="","",_6tuoxiaogaoliu1_month_day!A336)</f>
         <v/>
       </c>
       <c r="K341" s="18" t="str">
@@ -20640,7 +20641,7 @@
         <v/>
       </c>
       <c r="J343" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G339="","",_6tuoxiaogaoliu_month_day!G339)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A338="","",_6tuoxiaogaoliu1_month_day!A338)</f>
         <v/>
       </c>
       <c r="K343" s="18" t="str">
@@ -20754,7 +20755,7 @@
         <v/>
       </c>
       <c r="J345" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G341="","",_6tuoxiaogaoliu_month_day!G341)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A340="","",_6tuoxiaogaoliu1_month_day!A340)</f>
         <v/>
       </c>
       <c r="K345" s="18" t="str">
@@ -20862,7 +20863,7 @@
         <v/>
       </c>
       <c r="J347" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G343="","",_6tuoxiaogaoliu_month_day!G343)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A342="","",_6tuoxiaogaoliu1_month_day!A342)</f>
         <v/>
       </c>
       <c r="K347" s="18" t="str">
@@ -20973,7 +20974,7 @@
         <v/>
       </c>
       <c r="J349" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G345="","",_6tuoxiaogaoliu_month_day!G345)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A344="","",_6tuoxiaogaoliu1_month_day!A344)</f>
         <v/>
       </c>
       <c r="K349" s="18" t="str">
@@ -21087,7 +21088,7 @@
         <v/>
       </c>
       <c r="J351" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G347="","",_6tuoxiaogaoliu_month_day!G347)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A346="","",_6tuoxiaogaoliu1_month_day!A346)</f>
         <v/>
       </c>
       <c r="K351" s="18" t="str">
@@ -21195,7 +21196,7 @@
         <v/>
       </c>
       <c r="J353" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G349="","",_6tuoxiaogaoliu_month_day!G349)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A348="","",_6tuoxiaogaoliu1_month_day!A348)</f>
         <v/>
       </c>
       <c r="K353" s="18" t="str">
@@ -21306,7 +21307,7 @@
         <v/>
       </c>
       <c r="J355" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G351="","",_6tuoxiaogaoliu_month_day!G351)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A350="","",_6tuoxiaogaoliu1_month_day!A350)</f>
         <v/>
       </c>
       <c r="K355" s="18" t="str">
@@ -21420,7 +21421,7 @@
         <v/>
       </c>
       <c r="J357" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G353="","",_6tuoxiaogaoliu_month_day!G353)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A352="","",_6tuoxiaogaoliu1_month_day!A352)</f>
         <v/>
       </c>
       <c r="K357" s="18" t="str">
@@ -21528,7 +21529,7 @@
         <v/>
       </c>
       <c r="J359" s="18" t="str">
-        <f>IF(_6tuoxiaogaoliu_month_day!G355="","",_6tuoxiaogaoliu_month_day!G355)</f>
+        <f>IF(_6tuoxiaogaoliu1_month_day!A354="","",_6tuoxiaogaoliu1_month_day!A354)</f>
         <v/>
       </c>
       <c r="K359" s="18" t="str">
@@ -22788,6 +22789,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
